--- a/office/근무표작성중/7월/근무표7월만초안(박휴가작성중).xlsx
+++ b/office/근무표작성중/7월/근무표7월만초안(박휴가작성중).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gas00\MathTool\office\근무표작성중\7월\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{158A86E2-3450-404D-8903-C31080C4E6A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{766B6D13-EF28-4F24-A568-667D25FC6E78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{0584B32C-BEBA-4F96-AAC3-2FCF421C1532}"/>
   </bookViews>
@@ -16,8 +16,7 @@
     <sheet name="x" sheetId="4" r:id="rId1"/>
     <sheet name="xx" sheetId="5" r:id="rId2"/>
     <sheet name="7월초안(박휴가) " sheetId="11" r:id="rId3"/>
-    <sheet name="xxx" sheetId="7" r:id="rId4"/>
-    <sheet name="입력" sheetId="10" r:id="rId5"/>
+    <sheet name="입력" sheetId="10" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'7월초안(박휴가) '!$H$2:$H$37</definedName>
@@ -45,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="919" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="731" uniqueCount="68">
   <si>
     <t>권헌일</t>
   </si>
@@ -368,7 +367,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -387,43 +386,6 @@
         <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -465,62 +427,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -563,37 +476,13 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -604,12 +493,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -963,24 +846,24 @@
       <c r="A1" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20" t="s">
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="I1" s="20" t="s">
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="I1" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20"/>
-      <c r="M1" s="20"/>
-      <c r="N1" s="20"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="3"/>
@@ -1955,7 +1838,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D02B6451-CA91-4534-955A-5912AB3B23AA}">
   <dimension ref="A1:N63"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
@@ -1973,24 +1856,24 @@
       <c r="A1" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20" t="s">
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="I1" s="20" t="s">
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="I1" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20"/>
-      <c r="M1" s="20"/>
-      <c r="N1" s="20"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="3"/>
@@ -3308,8 +3191,8 @@
   </sheetPr>
   <dimension ref="A1:T33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3327,22 +3210,22 @@
       <c r="A1" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20" t="s">
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="J1" s="21" t="s">
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="J1" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="K1" s="22"/>
-      <c r="L1" s="23"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="18"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" s="3"/>
@@ -3732,19 +3615,19 @@
         <v>1</v>
       </c>
       <c r="K14" s="4">
-        <f>COUNTIF(B$3:B$33,LEFT($J14,2)&amp;"*")</f>
+        <f t="shared" ref="K14:N19" si="0">COUNTIF(B$3:B$33,LEFT($J14,2)&amp;"*")</f>
         <v>9</v>
       </c>
       <c r="L14" s="4">
-        <f>COUNTIF(C$3:C$33,LEFT($J14,2)&amp;"*")</f>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="M14" s="12">
-        <f>COUNTIF(D$3:D$33,LEFT($J14,2)&amp;"*")</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="N14" s="12">
-        <f>COUNTIF(E$3:E$33,LEFT($J14,2)&amp;"*")</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="O14" s="12">
@@ -3758,7 +3641,7 @@
       <c r="R14" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="S14" s="27">
+      <c r="S14" s="13">
         <v>0</v>
       </c>
       <c r="T14" s="1" t="s">
@@ -3789,33 +3672,33 @@
         <v>4</v>
       </c>
       <c r="K15" s="4">
-        <f>COUNTIF(B$3:B$33,LEFT($J15,2)&amp;"*")</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="L15" s="4">
-        <f>COUNTIF(C$3:C$33,LEFT($J15,2)&amp;"*")</f>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="M15" s="4">
-        <f>COUNTIF(D$3:D$33,LEFT($J15,2)&amp;"*")</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="N15" s="4">
-        <f>COUNTIF(E$3:E$33,LEFT($J15,2)&amp;"*")</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="O15" s="4">
-        <f t="shared" ref="O15:O19" si="0">SUM(M15:N15)</f>
+        <f t="shared" ref="O15:O19" si="1">SUM(M15:N15)</f>
         <v>10</v>
       </c>
       <c r="P15" s="9">
-        <f t="shared" ref="P15:P19" si="1">SUM(K15:N15)</f>
+        <f t="shared" ref="P15:P19" si="2">SUM(K15:N15)</f>
         <v>31</v>
       </c>
       <c r="R15" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="S15" s="27" t="s">
+      <c r="S15" s="13" t="s">
         <v>67</v>
       </c>
       <c r="T15" s="1" t="s">
@@ -3846,27 +3729,27 @@
         <v>5</v>
       </c>
       <c r="K16" s="4">
-        <f>COUNTIF(B$3:B$33,LEFT($J16,2)&amp;"*")</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="L16" s="4">
-        <f>COUNTIF(C$3:C$33,LEFT($J16,2)&amp;"*")</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="M16" s="4">
-        <f>COUNTIF(D$3:D$33,LEFT($J16,2)&amp;"*")</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="N16" s="4">
-        <f>COUNTIF(E$3:E$33,LEFT($J16,2)&amp;"*")</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="O16" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
       <c r="P16" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>31</v>
       </c>
       <c r="Q16" s="1" t="s">
@@ -3875,7 +3758,7 @@
       <c r="R16" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="S16" s="27" t="s">
+      <c r="S16" s="13" t="s">
         <v>59</v>
       </c>
       <c r="T16" s="1" t="s">
@@ -3906,27 +3789,27 @@
         <v>15</v>
       </c>
       <c r="K17" s="4">
-        <f>COUNTIF(B$3:B$33,LEFT($J17,2)&amp;"*")</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L17" s="4">
-        <f>COUNTIF(C$3:C$33,LEFT($J17,2)&amp;"*")</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M17" s="4">
-        <f>COUNTIF(D$3:D$33,LEFT($J17,2)&amp;"*")</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N17" s="4">
-        <f>COUNTIF(E$3:E$33,LEFT($J17,2)&amp;"*")</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="O17" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="P17" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -3954,27 +3837,27 @@
         <v>17</v>
       </c>
       <c r="K18" s="4">
-        <f>COUNTIF(B$3:B$33,LEFT($J18,2)&amp;"*")</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L18" s="4">
-        <f>COUNTIF(C$3:C$33,LEFT($J18,2)&amp;"*")</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M18" s="4">
-        <f>COUNTIF(D$3:D$33,LEFT($J18,2)&amp;"*")</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N18" s="4">
-        <f>COUNTIF(E$3:E$33,LEFT($J18,2)&amp;"*")</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="O18" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="P18" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -4002,27 +3885,27 @@
         <v>18</v>
       </c>
       <c r="K19" s="4">
-        <f>COUNTIF(B$3:B$33,LEFT($J19,2)&amp;"*")</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L19" s="4">
-        <f>COUNTIF(C$3:C$33,LEFT($J19,2)&amp;"*")</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M19" s="4">
-        <f>COUNTIF(D$3:D$33,LEFT($J19,2)&amp;"*")</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N19" s="4">
-        <f>COUNTIF(E$3:E$33,LEFT($J19,2)&amp;"*")</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="O19" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="P19" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -4088,7 +3971,7 @@
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
-      <c r="R22" s="28" t="s">
+      <c r="R22" s="14" t="s">
         <v>60</v>
       </c>
     </row>
@@ -4112,7 +3995,7 @@
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
-      <c r="R23" s="28" t="s">
+      <c r="R23" s="14" t="s">
         <v>61</v>
       </c>
     </row>
@@ -4136,7 +4019,7 @@
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
-      <c r="R24" s="28" t="s">
+      <c r="R24" s="14" t="s">
         <v>62</v>
       </c>
     </row>
@@ -4160,7 +4043,7 @@
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
-      <c r="R25" s="28" t="s">
+      <c r="R25" s="14" t="s">
         <v>63</v>
       </c>
     </row>
@@ -4184,7 +4067,7 @@
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
-      <c r="R26" s="28" t="s">
+      <c r="R26" s="14" t="s">
         <v>64</v>
       </c>
     </row>
@@ -4208,7 +4091,7 @@
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
-      <c r="R27" s="28" t="s">
+      <c r="R27" s="14" t="s">
         <v>65</v>
       </c>
     </row>
@@ -4232,7 +4115,7 @@
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>
-      <c r="R28" s="28" t="s">
+      <c r="R28" s="14" t="s">
         <v>66</v>
       </c>
     </row>
@@ -4353,845 +4236,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFF36F75-9EEC-4B13-B40C-62BAAE799C85}">
-  <dimension ref="A1:E62"/>
-  <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:I31"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="29.125" customWidth="1"/>
-    <col min="6" max="6" width="40.75" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="14" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="25"/>
-      <c r="B2" s="1"/>
-      <c r="C2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="15" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="25"/>
-      <c r="B3" s="1"/>
-      <c r="C3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="15" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="25"/>
-      <c r="B4" s="1"/>
-      <c r="C4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" t="s">
-        <v>0</v>
-      </c>
-      <c r="E4" s="15" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="25"/>
-      <c r="B5" s="1"/>
-      <c r="C5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" t="s">
-        <v>0</v>
-      </c>
-      <c r="E5" s="15" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="25"/>
-      <c r="B6" s="1"/>
-      <c r="C6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E6" s="15" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="25"/>
-      <c r="B7" s="1"/>
-      <c r="C7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D7" t="s">
-        <v>3</v>
-      </c>
-      <c r="E7" s="15" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="25"/>
-      <c r="B8" s="1"/>
-      <c r="C8" t="s">
-        <v>0</v>
-      </c>
-      <c r="D8" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" s="15" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="25"/>
-      <c r="B9" s="1"/>
-      <c r="C9" t="s">
-        <v>0</v>
-      </c>
-      <c r="D9" t="s">
-        <v>2</v>
-      </c>
-      <c r="E9" s="15" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="25"/>
-      <c r="B10" s="1"/>
-      <c r="C10" t="s">
-        <v>3</v>
-      </c>
-      <c r="D10" t="s">
-        <v>0</v>
-      </c>
-      <c r="E10" s="15" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="25"/>
-      <c r="B11" s="1"/>
-      <c r="C11" t="s">
-        <v>3</v>
-      </c>
-      <c r="D11" t="s">
-        <v>0</v>
-      </c>
-      <c r="E11" s="15" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="25"/>
-      <c r="B12" s="1"/>
-      <c r="C12" t="s">
-        <v>2</v>
-      </c>
-      <c r="D12" t="s">
-        <v>3</v>
-      </c>
-      <c r="E12" s="15" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="25"/>
-      <c r="B13" s="1"/>
-      <c r="C13" t="s">
-        <v>2</v>
-      </c>
-      <c r="D13" t="s">
-        <v>3</v>
-      </c>
-      <c r="E13" s="15" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="25"/>
-      <c r="B14" s="1"/>
-      <c r="C14" t="s">
-        <v>0</v>
-      </c>
-      <c r="D14" t="s">
-        <v>2</v>
-      </c>
-      <c r="E14" s="15" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="25"/>
-      <c r="B15" s="1"/>
-      <c r="C15" t="s">
-        <v>0</v>
-      </c>
-      <c r="D15" t="s">
-        <v>2</v>
-      </c>
-      <c r="E15" s="15" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="25"/>
-      <c r="B16" s="1"/>
-      <c r="C16" t="s">
-        <v>3</v>
-      </c>
-      <c r="D16" t="s">
-        <v>0</v>
-      </c>
-      <c r="E16" s="15" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="25"/>
-      <c r="B17" s="1"/>
-      <c r="C17" t="s">
-        <v>3</v>
-      </c>
-      <c r="D17" t="s">
-        <v>0</v>
-      </c>
-      <c r="E17" s="15" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="25"/>
-      <c r="B18" s="1"/>
-      <c r="C18" t="s">
-        <v>2</v>
-      </c>
-      <c r="D18" t="s">
-        <v>3</v>
-      </c>
-      <c r="E18" s="15" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="25"/>
-      <c r="B19" s="1"/>
-      <c r="C19" t="s">
-        <v>2</v>
-      </c>
-      <c r="D19" t="s">
-        <v>3</v>
-      </c>
-      <c r="E19" s="15" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="25"/>
-      <c r="B20" s="1"/>
-      <c r="C20" t="s">
-        <v>0</v>
-      </c>
-      <c r="D20" t="s">
-        <v>2</v>
-      </c>
-      <c r="E20" s="15" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="25"/>
-      <c r="B21" s="1"/>
-      <c r="C21" t="s">
-        <v>0</v>
-      </c>
-      <c r="D21" t="s">
-        <v>2</v>
-      </c>
-      <c r="E21" s="15" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="25"/>
-      <c r="B22" s="1"/>
-      <c r="C22" t="s">
-        <v>3</v>
-      </c>
-      <c r="D22" t="s">
-        <v>0</v>
-      </c>
-      <c r="E22" s="15" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="25"/>
-      <c r="B23" s="1"/>
-      <c r="C23" t="s">
-        <v>3</v>
-      </c>
-      <c r="D23" t="s">
-        <v>0</v>
-      </c>
-      <c r="E23" s="15" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="25"/>
-      <c r="B24" s="1"/>
-      <c r="C24" t="s">
-        <v>2</v>
-      </c>
-      <c r="D24" t="s">
-        <v>3</v>
-      </c>
-      <c r="E24" s="15" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="25"/>
-      <c r="B25" s="1"/>
-      <c r="C25" t="s">
-        <v>2</v>
-      </c>
-      <c r="D25" t="s">
-        <v>3</v>
-      </c>
-      <c r="E25" s="15" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="25"/>
-      <c r="B26" s="1"/>
-      <c r="C26" t="s">
-        <v>0</v>
-      </c>
-      <c r="D26" t="s">
-        <v>2</v>
-      </c>
-      <c r="E26" s="15" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="25"/>
-      <c r="B27" s="1"/>
-      <c r="C27" t="s">
-        <v>0</v>
-      </c>
-      <c r="D27" t="s">
-        <v>2</v>
-      </c>
-      <c r="E27" s="15" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="25"/>
-      <c r="B28" s="1"/>
-      <c r="C28" t="s">
-        <v>3</v>
-      </c>
-      <c r="D28" t="s">
-        <v>0</v>
-      </c>
-      <c r="E28" s="15" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="25"/>
-      <c r="B29" s="1"/>
-      <c r="C29" t="s">
-        <v>3</v>
-      </c>
-      <c r="D29" t="s">
-        <v>0</v>
-      </c>
-      <c r="E29" s="15" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="25"/>
-      <c r="B30" s="1"/>
-      <c r="C30" t="s">
-        <v>2</v>
-      </c>
-      <c r="D30" t="s">
-        <v>3</v>
-      </c>
-      <c r="E30" s="15" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="26"/>
-      <c r="B31" s="19"/>
-      <c r="C31" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="D31" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="E31" s="17" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="B32" s="18"/>
-      <c r="C32" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="D32" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="E32" s="14" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" s="25"/>
-      <c r="B33" s="1"/>
-      <c r="C33" t="s">
-        <v>0</v>
-      </c>
-      <c r="D33" t="s">
-        <v>2</v>
-      </c>
-      <c r="E33" s="15" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="25"/>
-      <c r="B34" s="1"/>
-      <c r="C34" t="s">
-        <v>3</v>
-      </c>
-      <c r="D34" t="s">
-        <v>0</v>
-      </c>
-      <c r="E34" s="15" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="25"/>
-      <c r="B35" s="1"/>
-      <c r="C35" t="s">
-        <v>3</v>
-      </c>
-      <c r="D35" t="s">
-        <v>0</v>
-      </c>
-      <c r="E35" s="15" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" s="25"/>
-      <c r="B36" s="1"/>
-      <c r="C36" t="s">
-        <v>2</v>
-      </c>
-      <c r="D36" t="s">
-        <v>3</v>
-      </c>
-      <c r="E36" s="15" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" s="25"/>
-      <c r="B37" s="1"/>
-      <c r="C37" t="s">
-        <v>2</v>
-      </c>
-      <c r="D37" t="s">
-        <v>3</v>
-      </c>
-      <c r="E37" s="15" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38" s="25"/>
-      <c r="B38" s="1"/>
-      <c r="C38" t="s">
-        <v>0</v>
-      </c>
-      <c r="D38" t="s">
-        <v>2</v>
-      </c>
-      <c r="E38" s="15" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39" s="25"/>
-      <c r="B39" s="1"/>
-      <c r="C39" t="s">
-        <v>0</v>
-      </c>
-      <c r="D39" t="s">
-        <v>2</v>
-      </c>
-      <c r="E39" s="15" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A40" s="25"/>
-      <c r="B40" s="1"/>
-      <c r="C40" t="s">
-        <v>3</v>
-      </c>
-      <c r="D40" t="s">
-        <v>0</v>
-      </c>
-      <c r="E40" s="15" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41" s="25"/>
-      <c r="B41" s="1"/>
-      <c r="C41" t="s">
-        <v>3</v>
-      </c>
-      <c r="D41" t="s">
-        <v>0</v>
-      </c>
-      <c r="E41" s="15" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42" s="25"/>
-      <c r="B42" s="1"/>
-      <c r="C42" t="s">
-        <v>2</v>
-      </c>
-      <c r="D42" t="s">
-        <v>3</v>
-      </c>
-      <c r="E42" s="15" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43" s="25"/>
-      <c r="B43" s="1"/>
-      <c r="C43" t="s">
-        <v>2</v>
-      </c>
-      <c r="D43" t="s">
-        <v>3</v>
-      </c>
-      <c r="E43" s="15" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A44" s="25"/>
-      <c r="B44" s="1"/>
-      <c r="C44" t="s">
-        <v>0</v>
-      </c>
-      <c r="D44" t="s">
-        <v>2</v>
-      </c>
-      <c r="E44" s="15" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A45" s="25"/>
-      <c r="B45" s="1"/>
-      <c r="C45" t="s">
-        <v>0</v>
-      </c>
-      <c r="D45" t="s">
-        <v>2</v>
-      </c>
-      <c r="E45" s="15" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A46" s="25"/>
-      <c r="B46" s="1"/>
-      <c r="C46" t="s">
-        <v>3</v>
-      </c>
-      <c r="D46" t="s">
-        <v>0</v>
-      </c>
-      <c r="E46" s="15" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A47" s="25"/>
-      <c r="B47" s="1"/>
-      <c r="C47" t="s">
-        <v>3</v>
-      </c>
-      <c r="D47" t="s">
-        <v>0</v>
-      </c>
-      <c r="E47" s="15" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A48" s="25"/>
-      <c r="B48" s="1"/>
-      <c r="C48" t="s">
-        <v>2</v>
-      </c>
-      <c r="D48" t="s">
-        <v>3</v>
-      </c>
-      <c r="E48" s="15" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A49" s="25"/>
-      <c r="B49" s="1"/>
-      <c r="C49" t="s">
-        <v>2</v>
-      </c>
-      <c r="D49" t="s">
-        <v>3</v>
-      </c>
-      <c r="E49" s="15" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A50" s="25"/>
-      <c r="B50" s="1"/>
-      <c r="C50" t="s">
-        <v>0</v>
-      </c>
-      <c r="D50" t="s">
-        <v>2</v>
-      </c>
-      <c r="E50" s="15" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A51" s="25"/>
-      <c r="B51" s="1"/>
-      <c r="C51" t="s">
-        <v>0</v>
-      </c>
-      <c r="D51" t="s">
-        <v>2</v>
-      </c>
-      <c r="E51" s="15" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A52" s="25"/>
-      <c r="B52" s="1"/>
-      <c r="C52" t="s">
-        <v>3</v>
-      </c>
-      <c r="D52" t="s">
-        <v>0</v>
-      </c>
-      <c r="E52" s="15" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A53" s="25"/>
-      <c r="B53" s="1"/>
-      <c r="C53" t="s">
-        <v>3</v>
-      </c>
-      <c r="D53" t="s">
-        <v>0</v>
-      </c>
-      <c r="E53" s="15" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A54" s="25"/>
-      <c r="B54" s="1"/>
-      <c r="C54" t="s">
-        <v>2</v>
-      </c>
-      <c r="D54" t="s">
-        <v>3</v>
-      </c>
-      <c r="E54" s="15" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A55" s="25"/>
-      <c r="B55" s="1"/>
-      <c r="C55" t="s">
-        <v>2</v>
-      </c>
-      <c r="D55" t="s">
-        <v>3</v>
-      </c>
-      <c r="E55" s="15" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A56" s="25"/>
-      <c r="B56" s="1"/>
-      <c r="C56" t="s">
-        <v>0</v>
-      </c>
-      <c r="D56" t="s">
-        <v>2</v>
-      </c>
-      <c r="E56" s="15" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A57" s="25"/>
-      <c r="B57" s="1"/>
-      <c r="C57" t="s">
-        <v>0</v>
-      </c>
-      <c r="D57" t="s">
-        <v>2</v>
-      </c>
-      <c r="E57" s="15" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A58" s="25"/>
-      <c r="B58" s="1"/>
-      <c r="C58" t="s">
-        <v>3</v>
-      </c>
-      <c r="D58" t="s">
-        <v>0</v>
-      </c>
-      <c r="E58" s="15" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A59" s="25"/>
-      <c r="B59" s="1"/>
-      <c r="C59" t="s">
-        <v>3</v>
-      </c>
-      <c r="D59" t="s">
-        <v>0</v>
-      </c>
-      <c r="E59" s="15" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A60" s="25"/>
-      <c r="B60" s="1"/>
-      <c r="C60" t="s">
-        <v>2</v>
-      </c>
-      <c r="D60" t="s">
-        <v>3</v>
-      </c>
-      <c r="E60" s="15" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A61" s="25"/>
-      <c r="B61" s="1"/>
-      <c r="C61" t="s">
-        <v>2</v>
-      </c>
-      <c r="D61" t="s">
-        <v>3</v>
-      </c>
-      <c r="E61" s="15" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="26"/>
-      <c r="B62" s="19"/>
-      <c r="C62" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="D62" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="E62" s="17" t="s">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:A31"/>
-    <mergeCell ref="A32:A62"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53ED7D2F-048E-4B89-A152-8D7B77325C0E}">
   <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
